--- a/Materials/module.xlsx
+++ b/Materials/module.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>LDD 3</t>
   </si>
@@ -271,12 +271,51 @@
   <si>
     <t>whats a driver?,why we need to write one?, advantages,and classifications, kernel version, modules and classess,security issues</t>
   </si>
+  <si>
+    <t>MOD1</t>
+  </si>
+  <si>
+    <t>MOD2</t>
+  </si>
+  <si>
+    <t>MOD3</t>
+  </si>
+  <si>
+    <t>MOD4</t>
+  </si>
+  <si>
+    <t>MOD5</t>
+  </si>
+  <si>
+    <t>MOD6</t>
+  </si>
+  <si>
+    <t>MOD7</t>
+  </si>
+  <si>
+    <t>MOD8</t>
+  </si>
+  <si>
+    <t>MOD9</t>
+  </si>
+  <si>
+    <t>MOD10</t>
+  </si>
+  <si>
+    <t>MOD11</t>
+  </si>
+  <si>
+    <t>MOD12</t>
+  </si>
+  <si>
+    <t>MOD13</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +347,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -332,10 +379,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -347,8 +395,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -651,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +715,7 @@
     <col min="5" max="5" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>76</v>
       </c>
@@ -673,7 +723,10 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -704,7 +757,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -715,7 +768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>32</v>
       </c>
@@ -726,7 +779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -737,7 +790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>11</v>
       </c>
@@ -745,13 +798,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -765,7 +822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>18</v>
       </c>
@@ -773,7 +830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>19</v>
       </c>
@@ -781,18 +838,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -806,13 +867,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>30</v>
       </c>
@@ -820,18 +885,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>40</v>
       </c>
@@ -842,18 +911,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>44</v>
       </c>
@@ -864,13 +937,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>47</v>
       </c>
@@ -881,23 +958,27 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>52</v>
       </c>
@@ -905,7 +986,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>55</v>
       </c>
@@ -913,8 +994,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>57</v>
       </c>
@@ -922,8 +1007,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>59</v>
       </c>
@@ -934,13 +1023,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>63</v>
       </c>
@@ -948,8 +1041,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>69</v>
       </c>
@@ -960,23 +1057,27 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>73</v>
       </c>
@@ -984,7 +1085,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>74</v>
       </c>
@@ -992,7 +1093,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>75</v>
       </c>
@@ -1000,14 +1101,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1015,7 +1116,10 @@
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E54" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Materials/module.xlsx
+++ b/Materials/module.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>LDD 3</t>
   </si>
@@ -134,9 +134,6 @@
     <t>18 - Linked list part 2</t>
   </si>
   <si>
-    <t>19 - Linked list part 3</t>
-  </si>
-  <si>
     <t>5 - Flow of time</t>
   </si>
   <si>
@@ -309,6 +306,15 @@
   </si>
   <si>
     <t>MOD13</t>
+  </si>
+  <si>
+    <t>udev</t>
+  </si>
+  <si>
+    <t>waitq</t>
+  </si>
+  <si>
+    <t>19 - Kthread</t>
   </si>
 </sst>
 </file>
@@ -389,13 +395,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -703,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,16 +722,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -754,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -781,7 +787,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -805,7 +811,7 @@
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -823,6 +829,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
@@ -831,6 +840,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
@@ -850,7 +862,7 @@
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -874,7 +886,7 @@
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,224 +904,224 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
         <v>36</v>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
         <v>41</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
         <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
         <v>59</v>
-      </c>
-      <c r="C40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
         <v>64</v>
-      </c>
-      <c r="D45" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
